--- a/auca/sem-1/time-table/IT Provisional Final Exam Timetable 2024-2025(2) 15April2025.xlsx
+++ b/auca/sem-1/time-table/IT Provisional Final Exam Timetable 2024-2025(2) 15April2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7433837-08C3-4056-B758-9183BC7840B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A77830-6B20-482A-B156-DEDFD15DF903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="237">
   <si>
     <t>Faculty of Information Technology</t>
   </si>
@@ -110,18 +110,12 @@
     <t>C,D</t>
   </si>
   <si>
-    <t>Muvunyi Victor</t>
-  </si>
-  <si>
     <t>INSY 8212</t>
   </si>
   <si>
     <t>Programming with C</t>
   </si>
   <si>
-    <t>D, G (All)</t>
-  </si>
-  <si>
     <t>6:00pm</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
   </si>
   <si>
     <t>Dot Net</t>
-  </si>
-  <si>
-    <t>A,E,F</t>
   </si>
   <si>
     <t xml:space="preserve">Gilbert, Rutarindwa, Byir, Ruganji Rene	</t>
@@ -491,9 +482,6 @@
     <t>D,E,F,G</t>
   </si>
   <si>
-    <t>Kayonde, Evariste</t>
-  </si>
-  <si>
     <t>ACCT 8112</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>Web Design</t>
   </si>
   <si>
-    <t>I,F</t>
-  </si>
-  <si>
     <t>COSC 8324</t>
   </si>
   <si>
@@ -740,7 +725,19 @@
     <t>B, H, I, J, X, Y</t>
   </si>
   <si>
-    <t>(SECOND PROVISIONAL TIMETABLE)</t>
+    <t>Kayonde, Evariste,Marcel,Phanuel</t>
+  </si>
+  <si>
+    <t>A,D,E,F,G</t>
+  </si>
+  <si>
+    <t>Kabandana Innocent, Muvunyi Victor</t>
+  </si>
+  <si>
+    <t>F,I</t>
+  </si>
+  <si>
+    <t>(3rd PROVISIONAL TIMETABLE)</t>
   </si>
 </sst>
 </file>
@@ -899,7 +896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1137,21 +1134,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1252,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1355,12 +1337,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1377,43 +1353,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1423,15 +1408,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1817,20 +1793,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="32.42578125" style="2" customWidth="1"/>
@@ -1863,43 +1839,43 @@
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="C8" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="42" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="43" t="s">
@@ -1907,11 +1883,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>9</v>
@@ -1927,11 +1903,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53">
+      <c r="A11" s="51">
         <v>45786</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1947,7 +1923,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1955,47 +1931,47 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>67</v>
+      <c r="A13" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="53">
+      <c r="A14" s="51">
         <v>45425</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2003,8 +1979,8 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>67</v>
+      <c r="A16" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -2015,7 +1991,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
+      <c r="A17" s="51">
         <v>45425</v>
       </c>
       <c r="B17" s="14"/>
@@ -2025,7 +2001,7 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2033,11 +2009,11 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>67</v>
+      <c r="A19" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2048,68 +2024,68 @@
       <c r="E19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>72</v>
+      <c r="F19" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="53">
+      <c r="A20" s="51">
         <v>45425</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2117,47 +2093,47 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>80</v>
+      <c r="A24" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+      <c r="A25" s="51">
         <v>45791</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2165,47 +2141,47 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>80</v>
+      <c r="A27" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="53">
+      <c r="A28" s="51">
         <v>45791</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -2213,83 +2189,83 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>80</v>
+      <c r="A30" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="51">
+        <v>45791</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53">
-        <v>45791</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="5" t="s">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="53"/>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F33" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2297,65 +2273,65 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>101</v>
+      <c r="A35" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="53">
+      <c r="A36" s="51">
         <v>45792</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2363,27 +2339,27 @@
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
-        <v>101</v>
+      <c r="A39" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53">
+      <c r="A40" s="51">
         <v>45792</v>
       </c>
       <c r="B40" s="14"/>
@@ -2393,7 +2369,7 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -2401,101 +2377,101 @@
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="F42" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="51">
+        <v>45792</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="51"/>
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="53">
-        <v>45792</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="51"/>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="53"/>
-      <c r="B46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2503,47 +2479,47 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>123</v>
+      <c r="A48" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="53">
+      <c r="A49" s="51">
         <v>45428</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -2551,27 +2527,27 @@
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
-        <v>123</v>
+      <c r="A51" s="53" t="s">
+        <v>120</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="53">
+      <c r="A52" s="51">
         <v>45428</v>
       </c>
       <c r="B52" s="19"/>
@@ -2581,24 +2557,24 @@
       <c r="F52" s="20"/>
     </row>
     <row r="53" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="59"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>4</v>
@@ -2611,7 +2587,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2631,7 +2607,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53">
+      <c r="A56" s="51">
         <v>45430</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2651,7 +2627,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="5" t="s">
         <v>16</v>
       </c>
@@ -2669,25 +2645,25 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="F58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -2695,7 +2671,7 @@
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2715,27 +2691,17 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="53">
+      <c r="A61" s="51">
         <v>45430</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -2743,45 +2709,45 @@
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="53">
+      <c r="A63" s="51">
         <v>45430</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="5" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
+      <c r="B64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="D64" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="55"/>
-      <c r="B64" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F64" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="54"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="9"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
@@ -2789,47 +2755,47 @@
       <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="52" t="s">
-        <v>46</v>
+      <c r="A66" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="53">
+      <c r="A67" s="51">
         <v>45796</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="12"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -2837,27 +2803,27 @@
       <c r="F68" s="28"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
-        <v>46</v>
+      <c r="A69" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="53">
+      <c r="A70" s="51">
         <v>45796</v>
       </c>
       <c r="B70" s="5"/>
@@ -2867,7 +2833,7 @@
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="12"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -2875,83 +2841,83 @@
       <c r="F71" s="28"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
-        <v>46</v>
+      <c r="A72" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="51">
+        <v>45796</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="59"/>
+      <c r="B74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D74" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="53"/>
+      <c r="B75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="53">
-        <v>45796</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
       <c r="D76" s="32"/>
@@ -2959,47 +2925,47 @@
       <c r="F76" s="33"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
-        <v>67</v>
+      <c r="A77" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="53">
+      <c r="A78" s="51">
         <v>45797</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -3007,8 +2973,8 @@
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
-        <v>67</v>
+      <c r="A80" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>8</v>
@@ -3019,7 +2985,7 @@
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="53">
+      <c r="A81" s="51">
         <v>45797</v>
       </c>
       <c r="B81" s="5"/>
@@ -3029,7 +2995,7 @@
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -3037,83 +3003,83 @@
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
-        <v>67</v>
+      <c r="A83" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="51">
+        <v>45797</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="53">
-        <v>45797</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="54"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -3121,47 +3087,47 @@
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
-        <v>80</v>
+      <c r="A88" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="63">
+      <c r="A89" s="61">
         <v>45798</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -3169,27 +3135,19 @@
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
-        <v>80</v>
+      <c r="A91" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="63">
+      <c r="A92" s="61">
         <v>45798</v>
       </c>
       <c r="B92" s="5"/>
@@ -3199,7 +3157,7 @@
       <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -3207,83 +3165,83 @@
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
-        <v>80</v>
+      <c r="A94" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="61">
+        <v>45798</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="63">
-        <v>45798</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="F95" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="62"/>
+      <c r="B96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="62"/>
+      <c r="B97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="64"/>
-      <c r="B96" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="F97" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F96" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="64"/>
-      <c r="B97" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -3291,47 +3249,47 @@
       <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="52" t="s">
-        <v>101</v>
+      <c r="A99" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="53">
+      <c r="A100" s="51">
         <v>45799</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -3339,31 +3297,37 @@
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
-        <v>101</v>
+      <c r="A102" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="8"/>
+      <c r="C102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="53">
+      <c r="A103" s="51">
         <v>45799</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -3371,65 +3335,65 @@
       <c r="F104" s="13"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
-        <v>101</v>
+      <c r="A105" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="51">
+        <v>45799</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="59"/>
+      <c r="B107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="53">
-        <v>45799</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="61"/>
-      <c r="B107" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="F107" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="54"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -3437,496 +3401,504 @@
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
-        <v>123</v>
+      <c r="A109" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="53">
+      <c r="A110" s="51">
         <v>45800</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
-    </row>
-    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="65">
-        <v>45800</v>
-      </c>
-      <c r="B114" s="5"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="50"/>
+      <c r="B112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="56"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="54"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="55" t="s">
+    <row r="115" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="63">
+        <v>45800</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="52"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="53" t="s">
         <v>15</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="53">
-        <v>45802</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="28"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="51">
+        <v>45802</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="55" t="s">
+      <c r="A119" s="56"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="28"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="53" t="s">
         <v>15</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="53">
-        <v>45802</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="51">
+        <v>45802</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="56"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="28"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="F123" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="51">
+        <v>45802</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="28"/>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F122" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="53">
-        <v>45802</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="11" t="s">
+      <c r="F124" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="63"/>
+      <c r="B125" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D125" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E125" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="65"/>
-      <c r="B124" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="49" t="s">
+      <c r="F125" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D124" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="F124" s="50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="54"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="53">
-        <v>45803</v>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="52"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="53">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="51">
         <v>45803</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="54"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="51">
+        <v>45803</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="F131" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="54"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="51">
+        <v>45803</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="D134" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="13"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="5" t="s">
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="53"/>
+      <c r="B135" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="C135" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="53">
-        <v>45803</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="E135" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
-      <c r="B134" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="F135" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D134" s="5" t="s">
+    </row>
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="53"/>
+      <c r="B136" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="E136" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
-      <c r="B135" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="69"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="71"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-    </row>
-    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="36" t="s">
+      <c r="F136" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="64"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+    </row>
+    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B138" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="66"/>
-    </row>
-    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="66"/>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-    </row>
-    <row r="140" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="36"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+    </row>
+    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139" s="36"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="C140" s="39"/>
       <c r="D140" s="39"/>
       <c r="E140" s="39"/>
     </row>
-    <row r="141" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B141" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C141" s="47"/>
-      <c r="D141" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="E141" s="46"/>
-    </row>
-    <row r="142" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B142" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C142" s="38"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+    <row r="141" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="36"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+    </row>
+    <row r="142" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B142" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="45"/>
+      <c r="D142" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E142" s="44"/>
+    </row>
+    <row r="143" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B143" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" s="38"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B137:E138"/>
+    <mergeCell ref="B138:E139"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>

--- a/auca/sem-1/time-table/IT Provisional Final Exam Timetable 2024-2025(2) 15April2025.xlsx
+++ b/auca/sem-1/time-table/IT Provisional Final Exam Timetable 2024-2025(2) 15April2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A77830-6B20-482A-B156-DEDFD15DF903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C43B56-1A8C-4CF3-856E-A79105495BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="235">
   <si>
     <t>Faculty of Information Technology</t>
   </si>
@@ -332,9 +332,6 @@
     <t>Computer Maintenance</t>
   </si>
   <si>
-    <t>A,A,B</t>
-  </si>
-  <si>
     <t>Munezero Jean de Dieu</t>
   </si>
   <si>
@@ -353,15 +350,6 @@
     <t>Dr Pacifique</t>
   </si>
   <si>
-    <t>Souzan Omonte</t>
-  </si>
-  <si>
-    <t>HELT 8213</t>
-  </si>
-  <si>
-    <t>Health Principles</t>
-  </si>
-  <si>
     <t>COSC 8323</t>
   </si>
   <si>
@@ -389,21 +377,6 @@
     <t>General English</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A,C,E,I,J,K </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>(ALL)</t>
-    </r>
-  </si>
-  <si>
     <t>Maniraho Laurent</t>
   </si>
   <si>
@@ -614,9 +587,6 @@
     <t>Introduction to Computer Programming</t>
   </si>
   <si>
-    <t>A, B,E</t>
-  </si>
-  <si>
     <t>Byiringiro Benjamin</t>
   </si>
   <si>
@@ -632,9 +602,6 @@
     <t>Manirakiza Sylvain</t>
   </si>
   <si>
-    <t>C, D</t>
-  </si>
-  <si>
     <t>COSC 8325</t>
   </si>
   <si>
@@ -647,9 +614,6 @@
     <t>E-Commerce</t>
   </si>
   <si>
-    <t>Dr Kayitare, Clement, Duncan, Marcel</t>
-  </si>
-  <si>
     <t>RELB 8116</t>
   </si>
   <si>
@@ -659,9 +623,6 @@
     <t>X,Q,T,G,F,Y,E</t>
   </si>
   <si>
-    <t>Uwumuremyi Joly</t>
-  </si>
-  <si>
     <t>RELT 8123</t>
   </si>
   <si>
@@ -695,9 +656,6 @@
     <t>Email: it.examoffice@auca.ac.rw</t>
   </si>
   <si>
-    <t>For any concern reach us through the following email and we will get back to you within 24hours</t>
-  </si>
-  <si>
     <t>1:00pm</t>
   </si>
   <si>
@@ -737,14 +695,38 @@
     <t>F,I</t>
   </si>
   <si>
-    <t>(3rd PROVISIONAL TIMETABLE)</t>
+    <t>A,F,B</t>
+  </si>
+  <si>
+    <t>Uwumuremyi Joly, M Clement</t>
+  </si>
+  <si>
+    <t>A, B</t>
+  </si>
+  <si>
+    <t>C, D,E</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>(FINAL EXAM TIMETABLE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A,C,E,I,J,K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Timetable </t>
+  </si>
+  <si>
+    <t>Dr Kayitare,Emmanuel Clement, Duncan, Marcel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,34 +784,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -856,12 +813,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -869,8 +820,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,8 +871,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1229,12 +1211,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1247,167 +1240,176 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1793,20 +1795,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="32.42578125" style="2" customWidth="1"/>
@@ -1839,99 +1841,99 @@
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="C8" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51">
+      <c r="A11" s="34">
         <v>45786</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1946,12 +1948,12 @@
       <c r="E13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>45425</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1966,50 +1968,58 @@
       <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="67" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+      <c r="A17" s="34">
         <v>45425</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2024,32 +2034,32 @@
       <c r="E19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="51">
+      <c r="A20" s="34">
         <v>45425</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -2062,12 +2072,12 @@
       <c r="E21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2080,362 +2090,347 @@
       <c r="E22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47"/>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
-        <v>45791</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>45791</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="51">
-        <v>45791</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <v>45791</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="51">
-        <v>45791</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="34">
+        <v>45791</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
+        <v>86</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34"/>
+      <c r="B34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="51">
-        <v>45792</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+        <v>101</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
+        <v>45792</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51">
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
         <v>45792</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>98</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="51">
-        <v>45792</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
+      <c r="A44" s="34">
+        <v>45792</v>
+      </c>
       <c r="B44" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
+        <v>107</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="34"/>
       <c r="B45" s="5" t="s">
         <v>33</v>
       </c>
@@ -2443,211 +2438,201 @@
         <v>17</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51"/>
-      <c r="B46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F47" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
+        <v>45428</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="34">
+        <v>45428</v>
+      </c>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
+    </row>
+    <row r="52" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="62"/>
+      <c r="F52" s="64"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="51">
-        <v>45428</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="51">
-        <v>45428</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="57"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
-        <v>15</v>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="34">
+        <v>45430</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="51">
-        <v>45430</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
       <c r="B56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+    </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>34</v>
@@ -2658,20 +2643,20 @@
       <c r="E58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2686,30 +2671,30 @@
       <c r="E60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="51">
+      <c r="A61" s="34">
         <v>45430</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="51">
+      <c r="A63" s="34">
         <v>45430</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2724,12 +2709,12 @@
       <c r="E63" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="53"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="5" t="s">
         <v>33</v>
       </c>
@@ -2742,164 +2727,164 @@
       <c r="E64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D66" s="18" t="s">
+      <c r="C66" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="34">
+        <v>45796</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="51">
-        <v>45796</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="51">
+      <c r="A70" s="34">
         <v>45796</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="51">
+      <c r="A73" s="34">
         <v>45796</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="5" t="s">
         <v>33</v>
       </c>
@@ -2907,73 +2892,73 @@
         <v>88</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>170</v>
+      <c r="C77" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="51">
+      <c r="A78" s="34">
         <v>45797</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F78" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -2982,547 +2967,577 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="51">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="34">
         <v>45797</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="s">
-        <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="51">
-        <v>45797</v>
-      </c>
+      <c r="F83" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="65"/>
       <c r="B84" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+        <v>169</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="36"/>
       <c r="B85" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D85" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="35"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="53"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
-      <c r="B86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="F87" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="52"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="53" t="s">
-        <v>77</v>
+    </row>
+    <row r="88" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41">
+        <v>45798</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="F88" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="56"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="41">
         <v>45798</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="61">
-        <v>45798</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
-        <v>77</v>
-      </c>
+      <c r="B93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="42"/>
       <c r="B94" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="61">
-        <v>45798</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="42"/>
       <c r="B95" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="35"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="53"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="34">
+        <v>45799</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="38"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="62"/>
-      <c r="B96" s="5" t="s">
+    </row>
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="34">
+        <v>45799</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="38"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="62"/>
-      <c r="B97" s="5" t="s">
+      <c r="C103" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="34">
+        <v>45799</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="52"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F99" s="8" t="s">
+      <c r="C104" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="51">
-        <v>45799</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-    </row>
-    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="51">
-        <v>45799</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-    </row>
-    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="53" t="s">
-        <v>98</v>
-      </c>
+      <c r="F104" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="65"/>
       <c r="B105" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="35"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="53"/>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="34">
+        <v>45800</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F105" s="8" t="s">
+      <c r="F110" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="51">
-        <v>45799</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" s="5" t="s">
+    <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="43">
+        <v>45800</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="59"/>
-      <c r="B107" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="52"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" s="18" t="s">
+      <c r="F111" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="35"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="53"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="51">
-        <v>45800</v>
-      </c>
-      <c r="B110" s="18" t="s">
+      <c r="C113" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="34">
+        <v>45802</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="63">
-        <v>45800</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="10"/>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="53" t="s">
+      <c r="C114" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="38"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="15"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="B116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="34">
+        <v>45802</v>
+      </c>
       <c r="B117" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>135</v>
@@ -3530,199 +3545,199 @@
       <c r="E117" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="38"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="15"/>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="34">
+        <v>45802</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="43"/>
+      <c r="B121" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="35"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="53"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="34">
+        <v>45803</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="37"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="56"/>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="51">
-        <v>45802</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F118" s="8" t="s">
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="34">
+        <v>45803</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="28"/>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="51">
-        <v>45802</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="28"/>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="5" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="37"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="56"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="51">
-        <v>45802</v>
-      </c>
-      <c r="B124" s="5" t="s">
+      <c r="C129" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="34">
+        <v>45803</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="63"/>
-      <c r="B125" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C125" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="E125" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F125" s="48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="51">
-        <v>45803</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="13"/>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C130" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>50</v>
@@ -3730,180 +3745,111 @@
       <c r="E130" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A131" s="51">
-        <v>45803</v>
-      </c>
+      <c r="F130" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="36"/>
       <c r="B131" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="13"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B133" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="36"/>
+      <c r="B132" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="C132" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="44"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+    </row>
+    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="72" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="51">
-        <v>45803</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="64"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-    </row>
-    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B138" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-    </row>
-    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-    </row>
-    <row r="141" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="36"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-    </row>
-    <row r="142" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B142" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C142" s="45"/>
-      <c r="D142" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E142" s="44"/>
-    </row>
-    <row r="143" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B143" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C143" s="38"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+    </row>
+    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+    </row>
+    <row r="137" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="21"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+    </row>
+    <row r="138" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B138" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C138" s="28"/>
+      <c r="E138" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B139" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B138:E139"/>
+    <mergeCell ref="B134:E135"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.17" bottom="0.17" header="0.3" footer="0.17"/>
+  <pageMargins left="0.25" right="0.25" top="0.17" bottom="0.17" header="0.17" footer="0.17"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
